--- a/Document Library/Bill Of Materials/Valkyrie 2040 Frame Only BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie 2040 Frame Only BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CD9140A9-8C14-4143-A3B6-51289407C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:40009_{CD9140A9-8C14-4143-A3B6-51289407C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F096423-E486-49B4-805B-F249122F06C0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie 2040 Frame BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Part name</t>
   </si>
@@ -31,18 +31,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Z 2040 700</t>
-  </si>
-  <si>
-    <t>Y 2040 480</t>
-  </si>
-  <si>
-    <t>X 2040 420</t>
-  </si>
-  <si>
-    <t>Z 2020 Center Back 339</t>
-  </si>
-  <si>
     <t>M3 Nut Hammer Nut</t>
   </si>
   <si>
@@ -58,28 +46,61 @@
     <t>2820 L Bracket</t>
   </si>
   <si>
-    <t>M5 T-Nut OB</t>
-  </si>
-  <si>
-    <t>X 2020 Top Back 420</t>
-  </si>
-  <si>
     <t>DIN 912</t>
   </si>
   <si>
     <t>ISO 7380</t>
   </si>
   <si>
-    <t>M5x10 ISO 7380</t>
-  </si>
-  <si>
     <t>M3x08 DIN 912</t>
+  </si>
+  <si>
+    <t>M5 T-Nut</t>
+  </si>
+  <si>
+    <t>M5x10</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Bracket</t>
+  </si>
+  <si>
+    <t>Fastener</t>
+  </si>
+  <si>
+    <t>Linear Rail</t>
+  </si>
+  <si>
+    <t>T-Slot</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>X Axis</t>
+  </si>
+  <si>
+    <t>Y Axis</t>
+  </si>
+  <si>
+    <t>Z Axis</t>
+  </si>
+  <si>
+    <t>DIN 125</t>
+  </si>
+  <si>
+    <t>2020 T-Slot</t>
+  </si>
+  <si>
+    <t>2040 T-Slot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,10 +578,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -916,142 +940,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>420</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>339</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>420</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>480</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>750</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="D12">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>350</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
-    <sortCondition ref="A2:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+    <sortCondition ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document Library/Bill Of Materials/Valkyrie 2040 Frame Only BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie 2040 Frame Only BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:40009_{CD9140A9-8C14-4143-A3B6-51289407C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F096423-E486-49B4-805B-F249122F06C0}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:40009_{CD9140A9-8C14-4143-A3B6-51289407C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{309D1D85-95C9-4D08-B95E-92E7D59F6D74}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Part name</t>
   </si>
@@ -34,12 +34,6 @@
     <t>M3 Nut Hammer Nut</t>
   </si>
   <si>
-    <t>MGN 12h 400</t>
-  </si>
-  <si>
-    <t>MGN 12h 350</t>
-  </si>
-  <si>
     <t>M5 WASHER</t>
   </si>
   <si>
@@ -95,6 +89,21 @@
   </si>
   <si>
     <t>2040 T-Slot</t>
+  </si>
+  <si>
+    <t>Rail Block</t>
+  </si>
+  <si>
+    <t>MGN 12h</t>
+  </si>
+  <si>
+    <t>MGN 09h</t>
+  </si>
+  <si>
+    <t>MGN 09</t>
+  </si>
+  <si>
+    <t>MGN 12</t>
   </si>
 </sst>
 </file>
@@ -941,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -956,13 +965,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -973,10 +982,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>420</v>
@@ -985,15 +994,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>339</v>
@@ -1002,15 +1011,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>420</v>
@@ -1019,15 +1028,15 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>480</v>
@@ -1036,15 +1045,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>750</v>
@@ -1053,15 +1062,15 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>42</v>
@@ -1069,7 +1078,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1080,24 +1089,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>84</v>
@@ -1105,38 +1114,38 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>350</v>
@@ -1147,16 +1156,52 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>400</v>
       </c>
       <c r="D14">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
